--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MarsFramwork-AutomationTest\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B6988-D20D-4D1C-998C-6FA655A55554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignUp" sheetId="3" r:id="rId1"/>
-    <sheet name="ShareSkill" sheetId="4" r:id="rId2"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId3"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="SignUp" sheetId="3" r:id="rId2"/>
+    <sheet name="ShareSkill" sheetId="4" r:id="rId3"/>
     <sheet name="Profile" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Url</t>
   </si>
@@ -33,9 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
     <t>Test@123</t>
   </si>
   <si>
@@ -184,17 +182,25 @@
   </si>
   <si>
     <t>Testing to edit share skill</t>
+  </si>
+  <si>
+    <t>harristest11@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost:5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,6 +210,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,7 +249,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -246,10 +259,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -265,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -340,6 +354,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -375,6 +406,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,333 +598,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="45.8984375" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
+    <col min="3" max="3" width="27.8984375" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="5" width="27.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" customWidth="1"/>
+    <col min="5" max="5" width="21.8984375" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="8" max="8" width="20.59765625" customWidth="1"/>
+    <col min="9" max="9" width="15.296875" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>50</v>
+      <c r="J2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="1" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="18.296875" customWidth="1"/>
+    <col min="5" max="5" width="24.8984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="52.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" customWidth="1"/>
+    <col min="10" max="10" width="52.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>